--- a/template - Copy.xlsx
+++ b/template - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. Work\1. Daily\Production follow up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977D461A-4ABF-478A-80FC-2BE5B682ED0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004CB8EA-C7A3-4C89-B54B-73ABC9A4EF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Production Unit</t>
   </si>
@@ -136,17 +136,46 @@
   </si>
   <si>
     <t>GTAL</t>
+  </si>
+  <si>
+    <t>Plan vs Achievement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date: </t>
+  </si>
+  <si>
+    <t>Forecast excluding Lingerie:</t>
+  </si>
+  <si>
+    <t>Plan Qty</t>
+  </si>
+  <si>
+    <t>Production in Completed days</t>
+  </si>
+  <si>
+    <t>Estimated Production/day</t>
+  </si>
+  <si>
+    <t>Remaining days Possible Production</t>
+  </si>
+  <si>
+    <t>Forecasted production</t>
+  </si>
+  <si>
+    <t>Backlog from plan</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-409]d/mmm;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,37 +191,51 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -204,12 +247,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF1B770B"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -219,139 +262,70 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FFA4A4A4"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FFA4A4A4"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="double">
+        <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="double">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FFA4A4A4"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FFA4A4A4"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FFA4A4A4"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FFA4A4A4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -631,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X14"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +621,7 @@
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.140625" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
@@ -655,523 +629,981 @@
     <col min="21" max="21" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="21" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:24" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="5">
+        <f ca="1">TODAY() - 1</f>
+        <v>45784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="8" customFormat="1" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="18" t="s">
+      <c r="E3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="T3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="U3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="V3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="W3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="X3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11">
         <v>4515034</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="7">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11">
+        <f>C4-D4</f>
+        <v>4515034</v>
+      </c>
+      <c r="F4" s="11">
+        <f>C4*W4/V4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <f>F4-D4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
+        <f>(E4+B4)/(X4+1)</f>
+        <v>161251.21428571429</v>
+      </c>
+      <c r="I4" s="11">
+        <f>H4*N4</f>
+        <v>1246471.8864285715</v>
+      </c>
+      <c r="J4" s="11">
+        <f>B4*O4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="13" t="e">
+        <f>T4/U4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M4" s="11">
+        <f>H4/P4</f>
+        <v>16370.68165337201</v>
+      </c>
+      <c r="N4" s="10">
         <v>7.73</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7">
+      <c r="O4" s="10"/>
+      <c r="P4" s="10">
         <v>9.85</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="8">
+      <c r="Q4" s="10"/>
+      <c r="R4" s="13">
         <v>0.68</v>
       </c>
-      <c r="S2" s="8"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="10">
-        <v>27</v>
-      </c>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="S4" s="13"/>
+      <c r="T4" s="11">
+        <f>O4*D4</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="11">
+        <f>N4*F4</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="10">
+        <v>27</v>
+      </c>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10">
+        <f>V4-W4</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11">
         <v>253849</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="7">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11">
+        <f t="shared" ref="E5:E13" si="0">C5-D5</f>
+        <v>253849</v>
+      </c>
+      <c r="F5" s="11">
+        <f t="shared" ref="F5:F13" si="1">C5*W5/V5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" ref="G5:G13" si="2">F5-D5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
+        <f t="shared" ref="H5:H13" si="3">(E5+B5)/(X5+1)</f>
+        <v>9066.0357142857138</v>
+      </c>
+      <c r="I5" s="11">
+        <f t="shared" ref="I5:I13" si="4">H5*N5</f>
+        <v>59745.175357142849</v>
+      </c>
+      <c r="J5" s="11">
+        <f t="shared" ref="J5:J13" si="5">B5*O5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="13" t="e">
+        <f t="shared" ref="L5:L13" si="6">T5/U5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M5" s="10">
+        <f t="shared" ref="M5:M13" si="7">H5/P5</f>
+        <v>920.40971718636695</v>
+      </c>
+      <c r="N5" s="10">
         <v>6.59</v>
       </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7">
+      <c r="O5" s="10"/>
+      <c r="P5" s="10">
         <v>9.85</v>
       </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="8">
+      <c r="Q5" s="10"/>
+      <c r="R5" s="13">
         <v>0.63</v>
       </c>
-      <c r="S3" s="8"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="10">
-        <v>27</v>
-      </c>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="S5" s="13"/>
+      <c r="T5" s="11">
+        <f t="shared" ref="T5:T13" si="8">O5*D5</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="11">
+        <f t="shared" ref="U5:U13" si="9">N5*F5</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="10">
+        <v>27</v>
+      </c>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10">
+        <f t="shared" ref="X5:X13" si="10">V5-W5</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11">
         <v>2500082</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="11">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11">
+        <f t="shared" si="0"/>
+        <v>2500082</v>
+      </c>
+      <c r="F6" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" si="3"/>
+        <v>89288.642857142855</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" si="4"/>
+        <v>536624.74357142858</v>
+      </c>
+      <c r="J6" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="13" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M6" s="11">
+        <f t="shared" si="7"/>
+        <v>9064.8368382886147</v>
+      </c>
+      <c r="N6" s="10">
         <v>6.01</v>
       </c>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11">
+      <c r="O6" s="10"/>
+      <c r="P6" s="10">
         <v>9.85</v>
       </c>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="12">
+      <c r="Q6" s="10"/>
+      <c r="R6" s="13">
         <v>0.72799999999999998</v>
       </c>
-      <c r="S4" s="12"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="10">
-        <v>27</v>
-      </c>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="S6" s="13"/>
+      <c r="T6" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="10">
+        <v>27</v>
+      </c>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10">
+        <f t="shared" si="10"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="4">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11">
         <v>2188461</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="7">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11">
+        <f t="shared" si="0"/>
+        <v>2188461</v>
+      </c>
+      <c r="F7" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="3"/>
+        <v>78159.321428571435</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" si="4"/>
+        <v>815201.72250000003</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="13" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M7" s="11">
+        <f t="shared" si="7"/>
+        <v>8752.4436090225572</v>
+      </c>
+      <c r="N7" s="10">
         <v>10.43</v>
       </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7">
+      <c r="O7" s="10"/>
+      <c r="P7" s="10">
         <v>8.93</v>
       </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="8">
+      <c r="Q7" s="10"/>
+      <c r="R7" s="13">
         <v>0.74399999999999999</v>
       </c>
-      <c r="S5" s="8"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="10">
-        <v>27</v>
-      </c>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="S7" s="13"/>
+      <c r="T7" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="10">
+        <v>27</v>
+      </c>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10">
+        <f t="shared" si="10"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="4">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11">
         <v>2166878</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="7">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11">
+        <f t="shared" si="0"/>
+        <v>2166878</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="3"/>
+        <v>77388.5</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" si="4"/>
+        <v>684114.34</v>
+      </c>
+      <c r="J8" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="13" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M8" s="11">
+        <f t="shared" si="7"/>
+        <v>7856.7005076142132</v>
+      </c>
+      <c r="N8" s="10">
         <v>8.84</v>
       </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7">
+      <c r="O8" s="10"/>
+      <c r="P8" s="10">
         <v>9.85</v>
       </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="8">
+      <c r="Q8" s="10"/>
+      <c r="R8" s="13">
         <v>0.68</v>
       </c>
-      <c r="S6" s="8"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="10">
-        <v>27</v>
-      </c>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="S8" s="13"/>
+      <c r="T8" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="10">
+        <v>27</v>
+      </c>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10">
+        <f t="shared" si="10"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="4">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11">
         <v>2918943</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="7">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11">
+        <f t="shared" si="0"/>
+        <v>2918943</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="3"/>
+        <v>104247.96428571429</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" si="4"/>
+        <v>755797.74107142864</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="13" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M9" s="11">
+        <f t="shared" si="7"/>
+        <v>10583.549673676578</v>
+      </c>
+      <c r="N9" s="10">
         <v>7.25</v>
       </c>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7">
+      <c r="O9" s="10"/>
+      <c r="P9" s="10">
         <v>9.85</v>
       </c>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="8">
+      <c r="Q9" s="10"/>
+      <c r="R9" s="13">
         <v>0.68</v>
       </c>
-      <c r="S7" s="8"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="10">
-        <v>27</v>
-      </c>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-    </row>
-    <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="S9" s="13"/>
+      <c r="T9" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="10">
+        <v>27</v>
+      </c>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10">
+        <f t="shared" si="10"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="4">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11">
         <v>3874922</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="7">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11">
+        <f t="shared" si="0"/>
+        <v>3874922</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="3"/>
+        <v>138390.07142857142</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="4"/>
+        <v>1411578.7285714285</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="13" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M10" s="11">
+        <f t="shared" si="7"/>
+        <v>14049.753444525018</v>
+      </c>
+      <c r="N10" s="10">
         <v>10.199999999999999</v>
       </c>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7">
+      <c r="O10" s="10"/>
+      <c r="P10" s="10">
         <v>9.85</v>
       </c>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="8">
+      <c r="Q10" s="10"/>
+      <c r="R10" s="13">
         <v>0.65</v>
       </c>
-      <c r="S8" s="8"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="10">
-        <v>27</v>
-      </c>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-    </row>
-    <row r="9" spans="1:24" s="21" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="S10" s="13"/>
+      <c r="T10" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="10">
+        <v>27</v>
+      </c>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10">
+        <f t="shared" si="10"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="8" customFormat="1" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="22">
-        <f>SUM(B2:B8)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="22">
-        <v>19251363</v>
-      </c>
-      <c r="D9" s="22">
-        <f>SUM(D2:D8)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="22">
-        <f>SUM(E2:E8)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="22">
-        <f>SUM(F2:F8)</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="22">
-        <f>SUM(G2:G8)</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="22">
-        <f>SUM(H2:H8)</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="22">
-        <f>SUM(I2:I8)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="22">
-        <f>SUM(J2:J8)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="22">
-        <f>SUM(K2:K8)</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="23" t="e">
-        <f>AVERAGE(L2:L8)</f>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9">
+        <f t="shared" ref="C11:D11" si="11">SUM(C4:C10)</f>
+        <v>18418169</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
+        <v>18418169</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <f>(E11+B11)/(X11+1)</f>
+        <v>657791.75</v>
+      </c>
+      <c r="I11" s="9">
+        <f t="shared" si="4"/>
+        <v>5407048.1850000005</v>
+      </c>
+      <c r="J11" s="9">
+        <f>B11*O11</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="14" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M9" s="24" t="e">
-        <f>AVERAGE(M2:M8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N9" s="24">
+      <c r="M11" s="9">
+        <f t="shared" si="7"/>
+        <v>67465.820512820515</v>
+      </c>
+      <c r="N11" s="7">
         <v>8.2200000000000006</v>
-      </c>
-      <c r="O9" s="24" t="e">
-        <f>AVERAGE(O2:O8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P9" s="24">
-        <v>9.75</v>
-      </c>
-      <c r="Q9" s="24" t="e">
-        <f>AVERAGE(Q2:Q8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R9" s="27">
-        <v>0.68620000000000003</v>
-      </c>
-      <c r="S9" s="23" t="e">
-        <f>AVERAGE(S2:S8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T9" s="25" t="e">
-        <f t="shared" ref="T9" si="0">O9*D9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U9" s="25">
-        <f t="shared" ref="U9" si="1">N9*F9</f>
-        <v>0</v>
-      </c>
-      <c r="V9" s="25">
-        <v>27</v>
-      </c>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26" t="e">
-        <f>ROUNDUP(AVERAGE(X2:X8),2)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4">
-        <v>4296356</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="16">
-        <v>4.12</v>
-      </c>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="S10" s="8"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="10">
-        <v>27</v>
-      </c>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-    </row>
-    <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="4">
-        <v>833194</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="7">
-        <v>4.5</v>
       </c>
       <c r="O11" s="7"/>
       <c r="P11" s="7">
+        <v>9.75</v>
+      </c>
+      <c r="Q11" s="7" t="e">
+        <f>AVERAGE(Q4:Q10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R11" s="14">
+        <v>0.68620000000000003</v>
+      </c>
+      <c r="S11" s="14"/>
+      <c r="T11" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="7">
+        <v>27</v>
+      </c>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7">
+        <f t="shared" si="10"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11">
+        <v>4296356</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11">
+        <f t="shared" si="0"/>
+        <v>4296356</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="3"/>
+        <v>153441.28571428571</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" si="4"/>
+        <v>632178.09714285715</v>
+      </c>
+      <c r="J12" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="13" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M12" s="11">
+        <f t="shared" si="7"/>
+        <v>13949.207792207791</v>
+      </c>
+      <c r="N12" s="10">
+        <v>4.12</v>
+      </c>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="S12" s="13"/>
+      <c r="T12" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="10">
+        <v>27</v>
+      </c>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10">
+        <f t="shared" si="10"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11">
+        <v>833194</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11">
+        <f t="shared" si="0"/>
+        <v>833194</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="3"/>
+        <v>29756.928571428572</v>
+      </c>
+      <c r="I13" s="11">
+        <f t="shared" si="4"/>
+        <v>133906.17857142858</v>
+      </c>
+      <c r="J13" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="13" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M13" s="11">
+        <f t="shared" si="7"/>
+        <v>3021.0079767947791</v>
+      </c>
+      <c r="N13" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10">
         <v>9.85</v>
       </c>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="8">
+      <c r="Q13" s="10"/>
+      <c r="R13" s="13">
         <v>0.65</v>
       </c>
-      <c r="S11" s="8"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="10">
-        <v>27</v>
-      </c>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C12" s="28"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C13" s="29"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="10">
+        <v>27</v>
+      </c>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10">
+        <f t="shared" si="10"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C14" s="28"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <f>C11</f>
+        <v>18418169</v>
+      </c>
+      <c r="B18" s="15">
+        <f>D11</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="15">
+        <f>QUOTIENT(B11,10000)*10000</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="15">
+        <f>C18*$X$11</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="15">
+        <f>$D$11+D18</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="15">
+        <f>$C$11-E18</f>
+        <v>18418169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="15">
+        <f>C18+35000</f>
+        <v>35000</v>
+      </c>
+      <c r="D19" s="15">
+        <f t="shared" ref="D19:D23" si="12">C19*$X$11</f>
+        <v>945000</v>
+      </c>
+      <c r="E19" s="15">
+        <f t="shared" ref="E19:E23" si="13">$D$11+D19</f>
+        <v>945000</v>
+      </c>
+      <c r="F19" s="15">
+        <f t="shared" ref="F19:F23" si="14">$C$11-E19</f>
+        <v>17473169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="15">
+        <f t="shared" ref="C20:C23" si="15">C19+35000</f>
+        <v>70000</v>
+      </c>
+      <c r="D20" s="15">
+        <f t="shared" si="12"/>
+        <v>1890000</v>
+      </c>
+      <c r="E20" s="15">
+        <f t="shared" si="13"/>
+        <v>1890000</v>
+      </c>
+      <c r="F20" s="15">
+        <f t="shared" si="14"/>
+        <v>16528169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="15">
+        <f t="shared" si="15"/>
+        <v>105000</v>
+      </c>
+      <c r="D21" s="15">
+        <f t="shared" si="12"/>
+        <v>2835000</v>
+      </c>
+      <c r="E21" s="15">
+        <f t="shared" si="13"/>
+        <v>2835000</v>
+      </c>
+      <c r="F21" s="15">
+        <f t="shared" si="14"/>
+        <v>15583169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="15">
+        <f t="shared" si="15"/>
+        <v>140000</v>
+      </c>
+      <c r="D22" s="15">
+        <f t="shared" si="12"/>
+        <v>3780000</v>
+      </c>
+      <c r="E22" s="15">
+        <f t="shared" si="13"/>
+        <v>3780000</v>
+      </c>
+      <c r="F22" s="15">
+        <f t="shared" si="14"/>
+        <v>14638169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="15">
+        <f t="shared" si="15"/>
+        <v>175000</v>
+      </c>
+      <c r="D23" s="15">
+        <f t="shared" si="12"/>
+        <v>4725000</v>
+      </c>
+      <c r="E23" s="15">
+        <f t="shared" si="13"/>
+        <v>4725000</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" si="14"/>
+        <v>13693169</v>
+      </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="K10:K11 K2:K8" name="otshedule24" securityDescriptor="O:WDG:WDD:(A;;CC;;;WD)"/>
+    <protectedRange sqref="K12:K13 K4:K10" name="otshedule24" securityDescriptor="O:WDG:WDD:(A;;CC;;;WD)"/>
   </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
